--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/KENTUCKY_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/KENTUCKY_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D974"/>
+  <dimension ref="A1:D968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C61">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C94">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C102">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C118">
@@ -2060,7 +2060,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C132">
@@ -2176,7 +2176,7 @@
         <v>40</v>
       </c>
       <c r="D136">
-        <v>0.009267840593141797</v>
+        <v>0.009267840593141796</v>
       </c>
     </row>
     <row r="137">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C154">
@@ -2525,12 +2525,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C163">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C166">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C177">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C180">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C184">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C195">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C203">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C208">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C213">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C224">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C230">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C239">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C244">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C247">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C253">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C259">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C275">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C278">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C284">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C316">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C321">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C324">
@@ -4671,7 +4671,7 @@
         <v>40</v>
       </c>
       <c r="D326">
-        <v>0.009267840593141797</v>
+        <v>0.009267840593141796</v>
       </c>
     </row>
     <row r="327">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C331">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C336">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C347">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C349">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C357">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C360">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C362">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C364">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C365">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C373">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C378">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C386">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C389">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C395">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C411">
@@ -6512,7 +6512,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C467">
@@ -6590,7 +6590,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C473">
@@ -6629,7 +6629,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C476">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C480">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C481">
@@ -6790,7 +6790,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C488">
@@ -6816,7 +6816,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C490">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C503">
@@ -7016,7 +7016,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C505">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C509">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C512">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C517">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C565">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C583">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C604">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C617">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C620">
@@ -8536,7 +8536,7 @@
         <v>394</v>
       </c>
       <c r="D621">
-        <v>0.09128822984244671</v>
+        <v>0.09128822984244672</v>
       </c>
     </row>
     <row r="622">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C630">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C645">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C649">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C653">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C657">
@@ -9106,7 +9106,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C665">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C671">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C674">
@@ -9423,7 +9423,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C689">
@@ -9475,7 +9475,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C693">
@@ -9488,7 +9488,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C694">
@@ -9527,7 +9527,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C697">
@@ -9547,7 +9547,7 @@
         <v>40</v>
       </c>
       <c r="D698">
-        <v>0.009267840593141797</v>
+        <v>0.009267840593141796</v>
       </c>
     </row>
     <row r="699">
@@ -9628,7 +9628,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C704">
@@ -9641,7 +9641,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C705">
@@ -9667,7 +9667,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C707">
@@ -9680,7 +9680,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C708">
@@ -9823,7 +9823,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C719">
@@ -9888,7 +9888,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C724">
@@ -9901,7 +9901,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C725">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C726">
@@ -9927,7 +9927,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C727">
@@ -9940,7 +9940,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C728">
@@ -9953,7 +9953,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C729">
@@ -10358,7 +10358,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C759">
@@ -10688,7 +10688,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C784">
@@ -10927,7 +10927,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C802">
@@ -11075,7 +11075,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C813">
@@ -11127,7 +11127,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C817">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C825">
@@ -11296,7 +11296,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C830">
@@ -11322,7 +11322,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C832">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C842">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C856">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C857">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C859">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C860">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C868">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C871">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C872">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C874">
@@ -11920,7 +11920,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C878">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C885">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C889">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C890">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C893">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C900">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C901">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C920">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C929">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C943">
@@ -12970,7 +12970,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C958">
@@ -13009,7 +13009,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C961">
@@ -13108,41 +13108,6 @@
       </c>
       <c r="D968">
         <v>1</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
